--- a/pred_ohlcv/54_21/2019-11-18 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 BAT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>17601.7024</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>17775.1981</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>17778.0033</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>17778.0033</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>25054.894</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>25064.9376</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>25999.3973</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>25999.3973</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>30917.0753</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>13406.4304</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>13408.4304</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>13376.3243</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>13367.6593</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-7995.709900000003</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4744.977500000004</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-7443.022300000002</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-7940.022300000002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-7940.022300000002</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-18 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 BAT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>17601.7024</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>17775.1981</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>17778.0033</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>17778.0033</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>25054.894</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>25064.9376</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>25999.3973</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>30917.0753</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>15528.4304</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>13406.4304</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7953.208700000003</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9995.709900000003</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-9995.709900000003</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8695.709900000003</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-5024.977500000004</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-5024.977500000004</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-5024.977500000004</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5059.097400000003</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5739.220200000003</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5708.015500000003</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5708.015500000003</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5708.015500000003</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5708.015500000003</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5708.015500000003</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>33047.0139</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-5741.405600000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-7443.022300000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-7940.022300000002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-7940.022300000002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
